--- a/ChildExperiment/Eyes/SubjData/7YQUD/so15-i-u-b.xlsx
+++ b/ChildExperiment/Eyes/SubjData/7YQUD/so15-i-u-b.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="61">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -226,18 +226,6 @@
   </si>
   <si>
     <t>00:09:03:12</t>
-  </si>
-  <si>
-    <t>TA</t>
-  </si>
-  <si>
-    <t>DA</t>
-  </si>
-  <si>
-    <t>DI</t>
-  </si>
-  <si>
-    <t>TI</t>
   </si>
   <si>
     <t>so15</t>
@@ -253,7 +241,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,8 +284,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -352,7 +341,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -377,6 +366,7 @@
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -401,6 +391,7 @@
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -766,7 +757,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -777,7 +768,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -788,7 +779,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -799,7 +790,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -810,7 +801,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -821,7 +812,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -832,7 +823,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -843,7 +834,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -867,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -902,11 +893,14 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B2">
         <v>8</v>
       </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
@@ -916,13 +910,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -933,11 +927,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B4">
         <v>8</v>
       </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
@@ -947,13 +944,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -964,13 +961,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -981,11 +978,14 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>8</v>
       </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
@@ -995,13 +995,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -1012,13 +1012,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
@@ -1032,13 +1032,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1049,13 +1049,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1066,13 +1066,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B12">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1083,13 +1083,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B13">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
         <v>29</v>
@@ -1100,13 +1100,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B14">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -1117,13 +1117,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B15">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1137,11 +1137,14 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B16">
         <v>6</v>
       </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
       <c r="D16" t="s">
         <v>18</v>
       </c>
@@ -1151,13 +1154,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B17">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1168,13 +1171,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B18">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
@@ -1185,13 +1188,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B19">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
@@ -1202,13 +1205,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B20">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1219,13 +1222,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
@@ -1239,13 +1242,13 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
         <v>29</v>
@@ -1256,11 +1259,14 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
       <c r="D23" t="s">
         <v>50</v>
       </c>
@@ -1270,13 +1276,13 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
@@ -1287,11 +1293,14 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B25">
         <v>5</v>
       </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
       <c r="D25" t="s">
         <v>18</v>
       </c>
@@ -1301,13 +1310,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -1318,13 +1327,13 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B27">
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>26</v>
@@ -1335,13 +1344,13 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B28">
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
@@ -1352,13 +1361,13 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>26</v>
@@ -1369,13 +1378,13 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
         <v>23</v>
@@ -1386,13 +1395,13 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
